--- a/Python/tables/4_2_users_graph_errors.xlsx
+++ b/Python/tables/4_2_users_graph_errors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="676">
   <si>
     <t>user_id</t>
   </si>
@@ -52,9 +52,6 @@
     <t>100280852</t>
   </si>
   <si>
-    <t>106036152</t>
-  </si>
-  <si>
     <t>11025592</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>1327337976</t>
   </si>
   <si>
-    <t>1356568904</t>
-  </si>
-  <si>
     <t>1397462048</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>2286422184</t>
   </si>
   <si>
-    <t>230403822</t>
-  </si>
-  <si>
     <t>236050524</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>2412794966</t>
   </si>
   <si>
-    <t>2416199407</t>
-  </si>
-  <si>
     <t>243456080</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>697061735593811968</t>
   </si>
   <si>
-    <t>710536251666010112</t>
-  </si>
-  <si>
     <t>73328095</t>
   </si>
   <si>
@@ -469,9 +454,6 @@
     <t>8258432</t>
   </si>
   <si>
-    <t>83324697</t>
-  </si>
-  <si>
     <t>841313422755037184</t>
   </si>
   <si>
@@ -535,9 +517,6 @@
     <t>rodrigo santana</t>
   </si>
   <si>
-    <t xml:space="preserve">eduardo elua  </t>
-  </si>
-  <si>
     <t>miguel perez alvarez</t>
   </si>
   <si>
@@ -574,9 +553,6 @@
     <t>beatriz pacheco</t>
   </si>
   <si>
-    <t>startup burgos</t>
-  </si>
-  <si>
     <t>angel fernandez</t>
   </si>
   <si>
@@ -682,9 +658,6 @@
     <t>jorge</t>
   </si>
   <si>
-    <t>andy sugden</t>
-  </si>
-  <si>
     <t>eva</t>
   </si>
   <si>
@@ -694,9 +667,6 @@
     <t>carlos fdzvillaverde</t>
   </si>
   <si>
-    <t>alex barreto</t>
-  </si>
-  <si>
     <t>jose</t>
   </si>
   <si>
@@ -907,9 +877,6 @@
     <t>monica cabanillas</t>
   </si>
   <si>
-    <t>salud big data</t>
-  </si>
-  <si>
     <t>aitor moreno</t>
   </si>
   <si>
@@ -952,9 +919,6 @@
     <t>nabor garrido valle</t>
   </si>
   <si>
-    <t>fernando cuenca</t>
-  </si>
-  <si>
     <t>learn python</t>
   </si>
   <si>
@@ -1015,9 +979,6 @@
     <t>rodrigofs10</t>
   </si>
   <si>
-    <t>eelua</t>
-  </si>
-  <si>
     <t>Maperez324</t>
   </si>
   <si>
@@ -1054,9 +1015,6 @@
     <t>beatyesth</t>
   </si>
   <si>
-    <t>StartupBurgos</t>
-  </si>
-  <si>
     <t>afercuello</t>
   </si>
   <si>
@@ -1162,9 +1120,6 @@
     <t>jorgeprg97</t>
   </si>
   <si>
-    <t>AndySugs</t>
-  </si>
-  <si>
     <t>MissHu</t>
   </si>
   <si>
@@ -1174,9 +1129,6 @@
     <t>C_FVillaverde</t>
   </si>
   <si>
-    <t>shakamunyi</t>
-  </si>
-  <si>
     <t>JoseCapel</t>
   </si>
   <si>
@@ -1387,9 +1339,6 @@
     <t>moncabacas</t>
   </si>
   <si>
-    <t>SaludBigData</t>
-  </si>
-  <si>
     <t>aitmoreno</t>
   </si>
   <si>
@@ -1432,9 +1381,6 @@
     <t>NaborGarrido</t>
   </si>
   <si>
-    <t>fernandocuenca</t>
-  </si>
-  <si>
     <t>learn_pythonx</t>
   </si>
   <si>
@@ -1507,48 +1453,54 @@
     <t>197</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>189</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>191</t>
+    <t>196</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>82</t>
+    <t>141</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.0101010101010101</t>
+  </si>
+  <si>
     <t>0.005</t>
   </si>
   <si>
-    <t>0.0101010101010101</t>
-  </si>
-  <si>
     <t>0.005025125628140704</t>
   </si>
   <si>
@@ -1558,28 +1510,22 @@
     <t>0.025</t>
   </si>
   <si>
+    <t>0.005076142131979695</t>
+  </si>
+  <si>
+    <t>0.00510204081632653</t>
+  </si>
+  <si>
     <t>0.005050505050505051</t>
   </si>
   <si>
-    <t>0.005128205128205128</t>
-  </si>
-  <si>
-    <t>0.005235602094240838</t>
-  </si>
-  <si>
     <t>0.67</t>
   </si>
   <si>
-    <t>0.005076142131979695</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
     <t>0.24</t>
   </si>
   <si>
-    <t>0.36</t>
+    <t>0.395</t>
   </si>
   <si>
     <t>0.02010050251256281</t>
@@ -1588,19 +1534,16 @@
     <t>0.405</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.007042253521126761</t>
-  </si>
-  <si>
-    <t>0.01219512195121951</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.04</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.007092198581560284</t>
+  </si>
+  <si>
+    <t>0.01136363636363636</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
   <si>
     <t>0.09547738693467336</t>
@@ -1612,13 +1555,7 @@
     <t>0.655</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.00510204081632653</t>
-  </si>
-  <si>
-    <t>0.015</t>
+    <t>0.07</t>
   </si>
   <si>
     <t>0.5</t>
@@ -1627,13 +1564,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.08333333333333333</t>
+    <t>0.1111111111111111</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>[0]</t>
@@ -1642,39 +1579,39 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[7, 4, 2]</t>
+    <t>[7, 4, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1, 1]</t>
+  </si>
+  <si>
+    <t>[22, 21, 19, 16, 15, 15, 15, 14, 14, 12, 11, 11]</t>
+  </si>
+  <si>
+    <t>[2, 1]</t>
   </si>
   <si>
     <t>[1, 0]</t>
   </si>
   <si>
-    <t>[3, 1]</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>[4, 1]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1, 1]</t>
-  </si>
-  <si>
-    <t>[18, 18, 17, 16, 14, 14, 14, 14, 12, 10, 10]</t>
-  </si>
-  <si>
-    <t>[2, 1]</t>
-  </si>
-  <si>
     <t>[2, 0]</t>
   </si>
   <si>
@@ -1684,424 +1621,427 @@
     <t>[{'code': 34, 'message': 'Sorry, that page does not exist.'}]</t>
   </si>
   <si>
-    <t>{'jv', 'nl', 'unknown', 'an', 'id', 'it', 'pt', 'es', 'en', 'hu', 'br'}</t>
-  </si>
-  <si>
-    <t>{'es', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'ht'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'id', 'de', 'en', 'es'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'et', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'ro', 'fi', 'rw', 'eo', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'oc', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'es', 'en', 'no', 'de', 'br', 'ja', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'gl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'br', 'eo', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'de', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'hu', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'la', 'se'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'an', 'sw', 'ca', 'gl', 'sk', 'es', 'en', 'de', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'gl', 'pt', 'lb', 'es', 'en', 'eo', 'da'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'lb', 'es', 'en', 'sk', 'zh', 'he', 'fi', 'ta'}</t>
-  </si>
-  <si>
-    <t>{'pt', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ar', 'an', 'fi', 'id', 'it', 'gl', 'pt', 'es', 'en', 'mr', 'hu', 'ro', 'zh', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'pt', 'es', 'en', 'fr', 'br', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'mr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'it', 'pt', 'es', 'en', 'oc', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'ca', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'es', 'en', 'fr', 'br'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'mg', 'it', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'pt', 'es', 'en', 'de', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'de', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'fr', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'pt', 'es', 'en', 'fr', 'ro'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'la'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'nl', 'unknown', 'an', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'de', 'fr', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'jv', 'unknown', 'an', 'es', 'en', 'se'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'km', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'id', 'es', 'en', 'az', 'la', 'da'}</t>
-  </si>
-  <si>
-    <t>{'vi', 'unknown', 'an', 'id', 'it', 'ca', 'gl', 'pt', 'es', 'en', 'mt', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'es'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'sv'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'es', 'en', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'br', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'an', 'it', 'gl', 'sk', 'es', 'en', 'de', 'af', 'ga'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'id', 'ca', 'gl', 'es', 'en', 'fr', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'fr', 'mt', 'br'}</t>
+    <t>{'en', 'it', 'nl', 'unknown', 'es', 'br', 'id', 'jv', 'pt', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'cs', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'ru', 'de', 'id'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'oc', 'pt'}</t>
   </si>
   <si>
     <t>{'es', 'gl'}</t>
   </si>
   <si>
-    <t>{'nl', 'unknown', 'ar', 'mg', 'id', 'pt', 'es', 'en', 'de', 'fr', 'ko', 'zh', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'es', 'en', 'fr', 'tr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'hu', 'fi', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'es', 'en', 'zh', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'sk', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'ca', 'gl', 'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'fr', 'eo', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'fi', 'an', 'gl', 'sk', 'es', 'en', 'zh', 'ga', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'it', 'pt', 'de', 'en', 'es', 'fr', 'ko', 'zh', 'la', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'es', 'en', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'se'}</t>
+    <t>{'en', 'eo', 'fi', 'gl', 'unknown', 'et', 'es', 'oc', 'ro', 'rw', 'pt', 'fr', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'pt', 'oc', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'it', 'unknown', 'no', 'de', 'ja', 'br', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'unknown', 'pt', 'sw', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'fr', 'pt', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'br', 'fo', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pt', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'mr', 'gl', 'unknown', 'fr', 'se', 'la', 'pt', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'nl', 'gl', 'unknown', 'de', 'ja', 'sk', 'sw', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'lb', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eo', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'de', 'is', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'eo', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'lb', 'gl', 'unknown', 'he', 'ta', 'es', 'sk', 'zh', 'pt', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'pt', 'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'cs', 'an', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'fi', 'nl', 'gl', 'mr', 'unknown', 'pt', 'ar', 'id', 'cs', 'zh', 'ro', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'fr', 'unknown', 'es', 'br', 'pt', 'fi', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'eu', 'unknown', 'de', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'es', 'mr'}</t>
+  </si>
+  <si>
+    <t>{'qu', 'en', 'ca', 'it', 'unknown', 'la', 'pt', 'cs', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'br', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'nl', 'unknown', 'mg', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'id', 'fo', 'sw', 'eo', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'de', 'lt', 'pt', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'cs', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'es', 'br', 'ro', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'la', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'eu', 'nl', 'gl', 'unknown', 'fr', 'de', 'pt', 'zh', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'jv', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'km', 'unknown', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'fr', 'pt', 'id', 'an', 'vi', 'eo', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'fr', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'eu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'la', 'pt', 'br', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'de', 'af', 'sk', 'es', 'an', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'nl', 'unknown', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'cy', 'nl', 'gl', 'unknown', 'es', 'pt', 'id', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'mt', 'es', 'pt', 'br', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'de', 'ko', 'mg', 'ja', 'pt', 'ar', 'id', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'pt', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'ru', 'de', 'ko', 'ja', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'unknown', 'es', 'pt', 'fi', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'es', 'zh', 'eo', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'sk', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'es', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'cs', 'eo', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'et', 'af', 'ja', 'zh', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'ru', 'de', 'la', 'ko', 'ja', 'pt', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'fr', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'se', 'es'}</t>
   </si>
   <si>
     <t>set()</t>
   </si>
   <si>
-    <t>{'es', 'en', 'fr'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'oc', 'mt', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'es', 'en', 'zh', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'es', 'en', 'fr', 'af', 'la'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'tl', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'it', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'ca', 'pt', 'sk', 'es', 'en', 'mt', 'fr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'mg', 'ca', 'it', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'sw', 'it', 'gl', 'pt', 'es', 'en', 'tl', 'de', 'zh', 'eo', 'ga', 'se'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'it', 'gl', 'pt', 'es', 'en', 'de', 'la'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'et', 'unknown', 'it', 'en'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'br'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'ca', 'es', 'en', 'oc', 'mt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'gl', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'gl', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'jv', 'unknown', 'mg', 'gl', 'pt', 'es', 'en', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'es', 'en', 'hu', 'fr', 'fi', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'si', 'ca', 'pt', 'es', 'en', 'de', 'fr', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'gl', 'pt', 'es', 'en', 'mr', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'pt', 'es', 'en', 'de', 'lt', 'fr', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'pt', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ca', 'gl', 'pt', 'es', 'en', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'an', 'es', 'en', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'es', 'en', 'oc'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'es', 'ca'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'gl', 'es', 'en', 'cy', 'cs'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'an', 'es', 'en', 'fr', 'fi'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'is', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'id', 'it', 'pt', 'es', 'en', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'ca', 'it'}</t>
-  </si>
-  <si>
-    <t>{'en', 'la', 'unknown'}</t>
-  </si>
-  <si>
-    <t>{'eu', 'unknown', 'it', 'es', 'en', 'eo', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'sl', 'fr', 'eo', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'pt', 'en', 'zh', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'oc', 'lt'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'sw', 'gl', 'pt', 'es', 'en', 'hu', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'es', 'en', 'de', 'fa', 'fr', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'de', 'en', 'no', 'az', 'fi', 'tr', 'la', 'ja', 'fo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'zu', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'nl', 'unknown', 'es', 'en', 'de', 'fr', 'sv', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'ro'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'en', 'zh', 'tr', 'pl'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'it', 'ca', 'gl', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'et', 'af', 'it', 'de', 'en', 'no', 'tl', 'fr', 'sl', 'zh', 'br', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'es', 'en', 'unknown', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'vi', 'unknown', 'de', 'en', 'fr', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'de', 'en', 'tl', 'es', 'fr', 'af'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'it', 'pt', 'de', 'en', 'es', 'fr', 'eo', 'ja'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ru', 'it', 'de', 'en', 'es', 'fr', 'hu', 'tr', 'da'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'pt', 'es', 'en', 'hu'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'ca', 'gl', 'pt', 'es', 'en', 'oc', 'eo'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'an', 'ru', 'pt', 'es', 'en', 'hu', 'zh', 'la'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'gl', 'es', 'en', 'zh'}</t>
-  </si>
-  <si>
-    <t>{'unknown', 'cs', 'ca', 'gl', 'sk', 'es', 'en', 'he', 'mr', 'hu', 'lt', 'fr', 'tl', 'la'}</t>
-  </si>
-  <si>
-    <t>Failed to send request: ('Connection aborted.', OSError("(10054, 'WSAECONNRESET')",))</t>
+    <t>{'unknown', 'en', 'es', 'gl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'oc', 'es', 'cs', 'zh', 'pt', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'unknown', 'es', 'zh', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'zh', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'la', 'af', 'an', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'sw', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'unknown', 'mt', 'pt', 'sk', 'eo', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'mg', 'sk', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'eu', 'gl', 'unknown', 'tl', 'de', 'se', 'pt', 'zh', 'sw', 'eo', 'es', 'an', 'ga'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'nl', 'gl', 'unknown', 'de', 'es', 'la', 'pt', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'de'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'eu', 'gl', 'unknown', 'br', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'nl', 'unknown', 'oc', 'es', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'pt', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'gl', 'unknown', 'es', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'nl', 'gl', 'unknown', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'mg', 'pt', 'jv', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'ja', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'de', 'si', 'es', 'pt', 'ja', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'mr', 'gl', 'unknown', 'es', 'pt', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'es', 'unknown'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'de', 'es', 'lt', 'pt', 'fr', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'pt', 'oc', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'oc', 'ca', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'pt', 'zh', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'cy', 'it', 'eu', 'gl', 'unknown', 'cs', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'gl', 'unknown', 'an', 'fi', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'is', 'af'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'lt', 'pt', 'id', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'hi', 'pl', 'unknown', 'ru', 'mt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'eu', 'unknown', 'eo', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'fo', 'sl', 'eo', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'de', 'pt', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'lt', 'oc', 'es'}</t>
+  </si>
+  <si>
+    <t>{'unknown', 'en', 'pt', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'es', 'an', 'ca', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'sw', 'eo', 'pt', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'tr', 'no', 'az', 'de', 'ja', 'fo', 'es', 'fi'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'zu', 'es', 'ca'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'nl', 'unknown', 'tl', 'de', 'sv', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'ro', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'zh', 'unknown', 'pl'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'es', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'it', 'gl', 'unknown', 'zh', 'es', 'an'}</t>
+  </si>
+  <si>
+    <t>{'en', 'pl', 'it', 'unknown', 'no', 'tl', 'de', 'et', 'ja', 'br', 'zh', 'af', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'es', 'unknown', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'tr', 'de', 'vi', 'af'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'tl', 'de', 'es', 'af', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'it', 'unknown', 'tr', 'de', 'ko', 'zh', 'es', 'fr'}</t>
+  </si>
+  <si>
+    <t>{'en', 'da', 'it', 'unknown', 'tr', 'ru', 'de', 'es', 'fr', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'es', 'pt', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'ca', 'gl', 'unknown', 'es', 'oc', 'eo', 'pt'}</t>
+  </si>
+  <si>
+    <t>{'en', 'unknown', 'ru', 'la', 'pt', 'zh', 'es', 'an', 'hu'}</t>
+  </si>
+  <si>
+    <t>{'en', 'gl', 'unknown', 'zh', 'es'}</t>
+  </si>
+  <si>
+    <t>{'en', 'lv', 'it', 'ca', 'lb', 'mr', 'gl', 'unknown', 'he', 'la', 'lt', 'sk', 'es', 'hu'}</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2508,31 +2448,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I2" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="J2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2543,31 +2483,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I3" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K3" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2578,31 +2518,31 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F4" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H4" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I4" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="J4" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K4" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2613,31 +2553,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" t="s">
         <v>493</v>
       </c>
-      <c r="F5" t="s">
-        <v>501</v>
-      </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H5" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I5" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="J5" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2648,31 +2588,31 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F6" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="G6" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="H6" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="J6" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K6" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2683,31 +2623,31 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I7" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="J7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K7" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2718,31 +2658,31 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H8" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I8" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K8" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2753,31 +2693,31 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G9" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I9" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J9" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K9" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2788,31 +2728,31 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F10" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H10" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I10" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J10" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K10" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2823,31 +2763,31 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F11" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G11" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H11" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J11" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K11" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2858,31 +2798,31 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G12" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I12" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J12" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K12" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2893,31 +2833,31 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F13" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G13" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H13" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I13" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J13" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K13" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2928,31 +2868,31 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I14" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K14" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2963,31 +2903,31 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F15" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G15" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H15" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I15" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J15" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K15" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2998,31 +2938,31 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G16" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H16" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I16" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J16" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K16" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3033,31 +2973,31 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F17" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G17" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H17" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I17" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J17" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K17" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3068,31 +3008,31 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I18" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K18" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3103,31 +3043,31 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G19" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I19" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J19" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K19" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3138,31 +3078,31 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G20" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I20" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J20" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3173,31 +3113,31 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G21" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I21" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K21" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3208,31 +3148,31 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E22" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H22" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I22" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J22" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K22" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3243,31 +3183,31 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F23" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H23" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I23" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J23" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K23" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3278,31 +3218,31 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G24" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I24" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J24" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K24" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3313,31 +3253,31 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E25" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G25" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H25" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I25" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J25" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K25" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3348,31 +3288,31 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G26" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H26" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I26" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J26" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K26" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3383,31 +3323,31 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G27" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H27" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I27" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J27" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K27" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3418,31 +3358,31 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G28" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H28" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I28" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J28" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K28" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3453,31 +3393,31 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F29" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G29" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H29" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I29" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J29" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K29" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3488,31 +3428,31 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="F30" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H30" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I30" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J30" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K30" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3523,31 +3463,31 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F31" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G31" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H31" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I31" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J31" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K31" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3558,31 +3498,31 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F32" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G32" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H32" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I32" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J32" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K32" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3593,31 +3533,31 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G33" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H33" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I33" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J33" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K33" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3628,31 +3568,31 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F34" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G34" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H34" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I34" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J34" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K34" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3663,31 +3603,31 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F35" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G35" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H35" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I35" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J35" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K35" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3698,31 +3638,31 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F36" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G36" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H36" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I36" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J36" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K36" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3733,31 +3673,31 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F37" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G37" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I37" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J37" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K37" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3768,31 +3708,31 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G38" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H38" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I38" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J38" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K38" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3803,31 +3743,31 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F39" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G39" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H39" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I39" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J39" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K39" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3838,31 +3778,31 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F40" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G40" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H40" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I40" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K40" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3873,31 +3813,31 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F41" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G41" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H41" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I41" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J41" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K41" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3908,31 +3848,31 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F42" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G42" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H42" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I42" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J42" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K42" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3943,31 +3883,31 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F43" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G43" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H43" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I43" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J43" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K43" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3978,31 +3918,31 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G44" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H44" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I44" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J44" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K44" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4013,31 +3953,31 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E45" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F45" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G45" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H45" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I45" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J45" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K45" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4048,31 +3988,31 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F46" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="G46" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H46" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I46" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J46" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K46" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4083,31 +4023,31 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F47" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G47" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H47" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I47" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J47" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K47" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4118,31 +4058,31 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F48" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G48" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H48" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I48" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J48" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K48" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4153,31 +4093,31 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F49" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G49" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H49" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I49" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J49" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K49" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4188,31 +4128,31 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E50" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H50" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I50" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J50" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K50" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4223,31 +4163,31 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="F51" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G51" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H51" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I51" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J51" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K51" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4258,31 +4198,31 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E52" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F52" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G52" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H52" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I52" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J52" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4293,31 +4233,31 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E53" t="s">
+        <v>475</v>
+      </c>
+      <c r="F53" t="s">
         <v>494</v>
       </c>
-      <c r="F53" t="s">
-        <v>514</v>
-      </c>
       <c r="G53" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H53" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I53" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J53" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K53" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4328,31 +4268,31 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G54" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H54" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I54" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J54" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K54" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4363,31 +4303,31 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F55" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G55" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H55" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I55" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J55" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K55" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4398,31 +4338,31 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E56" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F56" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G56" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H56" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="I56" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="J56" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K56" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4433,31 +4373,31 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F57" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G57" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H57" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I57" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J57" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K57" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4468,31 +4408,31 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F58" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H58" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I58" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K58" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4503,31 +4443,31 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E59" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F59" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G59" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H59" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I59" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J59" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K59" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4538,31 +4478,31 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="G60" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H60" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="I60" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="J60" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K60" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4573,31 +4513,31 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E61" t="s">
+        <v>475</v>
+      </c>
+      <c r="F61" t="s">
         <v>494</v>
       </c>
-      <c r="F61" t="s">
-        <v>514</v>
-      </c>
       <c r="G61" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H61" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I61" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J61" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K61" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4608,31 +4548,31 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G62" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H62" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I62" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K62" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4643,31 +4583,31 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G63" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H63" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I63" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J63" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K63" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4678,34 +4618,34 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G64" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H64" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I64" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J64" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K64" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4713,34 +4653,34 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F65" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G65" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H65" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I65" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J65" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K65" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4748,34 +4688,34 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E66" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F66" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G66" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H66" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I66" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K66" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4783,34 +4723,34 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E67" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H67" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I67" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J67" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K67" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4818,34 +4758,34 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E68" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F68" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="G68" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H68" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J68" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K68" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4853,34 +4793,34 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E69" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F69" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G69" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H69" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I69" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J69" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K69" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4888,34 +4828,34 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F70" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G70" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H70" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I70" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K70" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4923,34 +4863,34 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E71" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F71" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G71" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H71" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I71" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J71" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K71" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4958,34 +4898,34 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E72" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F72" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="G72" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H72" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I72" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J72" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K72" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4993,34 +4933,34 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E73" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F73" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G73" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H73" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I73" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J73" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K73" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5028,34 +4968,34 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E74" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G74" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H74" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I74" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J74" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K74" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5063,34 +5003,34 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E75" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F75" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G75" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H75" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I75" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J75" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5098,34 +5038,34 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E76" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F76" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I76" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J76" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K76" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5133,34 +5073,34 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E77" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F77" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G77" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H77" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I77" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J77" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K77" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5168,34 +5108,34 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F78" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G78" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H78" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I78" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J78" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K78" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5203,34 +5143,34 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D79" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F79" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="G79" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H79" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I79" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J79" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K79" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5238,34 +5178,31 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E80" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F80" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G80" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H80" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I80" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J80" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s">
-        <v>557</v>
-      </c>
-      <c r="L80" t="s">
-        <v>695</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5276,31 +5213,31 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E81" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F81" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G81" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H81" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I81" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J81" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K81" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5311,31 +5248,31 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E82" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G82" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H82" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="I82" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="J82" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K82" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5346,31 +5283,34 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D83" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E83" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F83" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G83" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H83" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I83" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J83" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="K83" t="s">
-        <v>627</v>
+        <v>611</v>
+      </c>
+      <c r="L83" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5381,31 +5321,31 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E84" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G84" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H84" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I84" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="J84" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K84" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5416,31 +5356,31 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E85" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G85" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H85" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I85" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="J85" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K85" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5451,31 +5391,31 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D86" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E86" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F86" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="G86" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H86" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="J86" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K86" t="s">
-        <v>630</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5486,34 +5426,31 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E87" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="F87" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G87" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H87" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I87" t="s">
+        <v>520</v>
+      </c>
+      <c r="J87" t="s">
+        <v>485</v>
+      </c>
+      <c r="K87" t="s">
         <v>541</v>
-      </c>
-      <c r="J87" t="s">
-        <v>554</v>
-      </c>
-      <c r="K87" t="s">
-        <v>631</v>
-      </c>
-      <c r="L87" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5524,31 +5461,31 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E88" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F88" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G88" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H88" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I88" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="J88" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K88" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5559,31 +5496,31 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E89" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F89" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="G89" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H89" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I89" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="J89" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K89" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5594,31 +5531,31 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E90" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F90" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="G90" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H90" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I90" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="J90" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K90" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5629,31 +5566,31 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E91" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F91" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G91" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H91" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I91" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J91" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K91" t="s">
-        <v>562</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5664,31 +5601,31 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E92" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F92" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G92" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H92" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I92" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="J92" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K92" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5699,31 +5636,31 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D93" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E93" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F93" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G93" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I93" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J93" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K93" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5734,31 +5671,31 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E94" t="s">
+        <v>475</v>
+      </c>
+      <c r="F94" t="s">
         <v>494</v>
       </c>
-      <c r="F94" t="s">
-        <v>514</v>
-      </c>
       <c r="G94" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H94" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I94" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J94" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K94" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5769,31 +5706,31 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E95" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F95" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="G95" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H95" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I95" t="s">
+        <v>520</v>
+      </c>
+      <c r="J95" t="s">
+        <v>485</v>
+      </c>
+      <c r="K95" t="s">
         <v>541</v>
-      </c>
-      <c r="J95" t="s">
-        <v>501</v>
-      </c>
-      <c r="K95" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5804,31 +5741,31 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E96" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F96" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="G96" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H96" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I96" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="J96" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K96" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5839,31 +5776,31 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D97" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E97" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F97" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G97" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H97" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I97" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J97" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K97" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5874,31 +5811,31 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E98" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F98" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G98" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H98" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I98" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J98" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K98" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5909,31 +5846,31 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E99" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F99" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G99" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H99" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I99" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J99" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="K99" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5944,31 +5881,31 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D100" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E100" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F100" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="G100" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H100" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I100" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J100" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K100" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5979,31 +5916,31 @@
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E101" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F101" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="G101" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="H101" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I101" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J101" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K101" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6014,31 +5951,31 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E102" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F102" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G102" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="H102" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="I102" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="J102" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K102" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -6049,31 +5986,31 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D103" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E103" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="F103" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G103" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H103" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I103" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J103" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="K103" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -6084,31 +6021,31 @@
         <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E104" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F104" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G104" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H104" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I104" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J104" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K104" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -6119,31 +6056,31 @@
         <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E105" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F105" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G105" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="H105" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I105" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="J105" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K105" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -6154,31 +6091,31 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E106" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F106" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="G106" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="H106" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="I106" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="J106" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K106" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -6189,31 +6126,31 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D107" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E107" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F107" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G107" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H107" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I107" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J107" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K107" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -6224,31 +6161,31 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E108" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="F108" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G108" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H108" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I108" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J108" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K108" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -6259,31 +6196,31 @@
         <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E109" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F109" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G109" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H109" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I109" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J109" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K109" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6294,31 +6231,31 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E110" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="F110" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G110" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H110" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I110" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J110" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K110" t="s">
-        <v>649</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -6329,31 +6266,31 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E111" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F111" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G111" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H111" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I111" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J111" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K111" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6364,31 +6301,31 @@
         <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E112" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="F112" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="G112" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H112" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I112" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J112" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K112" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -6399,31 +6336,31 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D113" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E113" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F113" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G113" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H113" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I113" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J113" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K113" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -6434,31 +6371,31 @@
         <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D114" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E114" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F114" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G114" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H114" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I114" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J114" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K114" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6469,31 +6406,31 @@
         <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D115" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E115" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F115" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G115" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H115" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I115" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="J115" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K115" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6504,31 +6441,31 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D116" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E116" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F116" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G116" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H116" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I116" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J116" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K116" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -6539,31 +6476,31 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E117" t="s">
+        <v>476</v>
+      </c>
+      <c r="F117" t="s">
         <v>493</v>
       </c>
-      <c r="F117" t="s">
-        <v>501</v>
-      </c>
       <c r="G117" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H117" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I117" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J117" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K117" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6574,31 +6511,31 @@
         <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D118" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E118" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F118" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G118" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H118" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I118" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J118" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K118" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6609,31 +6546,31 @@
         <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D119" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E119" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F119" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="G119" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H119" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I119" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="J119" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K119" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6644,31 +6581,31 @@
         <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D120" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E120" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F120" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G120" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H120" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I120" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J120" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K120" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6679,31 +6616,31 @@
         <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D121" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E121" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F121" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="G121" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H121" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I121" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J121" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K121" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6714,31 +6651,31 @@
         <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D122" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E122" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F122" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G122" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H122" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I122" t="s">
+        <v>519</v>
+      </c>
+      <c r="J122" t="s">
+        <v>485</v>
+      </c>
+      <c r="K122" t="s">
         <v>541</v>
-      </c>
-      <c r="J122" t="s">
-        <v>501</v>
-      </c>
-      <c r="K122" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6749,31 +6686,31 @@
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D123" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E123" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F123" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G123" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H123" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I123" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J123" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K123" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6784,31 +6721,31 @@
         <v>133</v>
       </c>
       <c r="C124" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D124" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E124" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F124" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G124" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H124" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I124" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J124" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K124" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6819,31 +6756,31 @@
         <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D125" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E125" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F125" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G125" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H125" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I125" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J125" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K125" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6854,31 +6791,31 @@
         <v>135</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D126" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E126" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="F126" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G126" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H126" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I126" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="J126" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K126" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6889,31 +6826,31 @@
         <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D127" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E127" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F127" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G127" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H127" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I127" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="J127" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K127" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6924,31 +6861,31 @@
         <v>137</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D128" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E128" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F128" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G128" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H128" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I128" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J128" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K128" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6959,31 +6896,31 @@
         <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D129" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E129" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F129" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G129" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H129" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I129" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J129" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K129" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6994,31 +6931,31 @@
         <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D130" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E130" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F130" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G130" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H130" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I130" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J130" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K130" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7029,31 +6966,31 @@
         <v>140</v>
       </c>
       <c r="C131" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D131" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E131" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F131" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="G131" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H131" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I131" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="J131" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K131" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7064,31 +7001,31 @@
         <v>141</v>
       </c>
       <c r="C132" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D132" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E132" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F132" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G132" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H132" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I132" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J132" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K132" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7099,31 +7036,31 @@
         <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D133" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E133" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F133" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G133" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H133" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I133" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J133" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K133" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -7134,31 +7071,31 @@
         <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D134" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E134" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F134" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G134" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H134" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I134" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J134" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K134" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -7169,31 +7106,31 @@
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D135" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E135" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F135" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G135" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H135" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I135" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J135" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K135" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -7204,31 +7141,31 @@
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D136" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E136" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F136" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="G136" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H136" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I136" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J136" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K136" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -7239,31 +7176,31 @@
         <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D137" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E137" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F137" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G137" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H137" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I137" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="J137" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K137" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -7274,31 +7211,31 @@
         <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D138" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E138" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="F138" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="G138" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H138" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I138" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J138" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K138" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -7309,31 +7246,31 @@
         <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D139" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E139" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F139" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="G139" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H139" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I139" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="J139" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K139" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -7344,31 +7281,31 @@
         <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D140" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E140" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F140" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G140" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H140" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I140" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J140" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K140" t="s">
-        <v>562</v>
+        <v>661</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -7379,31 +7316,31 @@
         <v>150</v>
       </c>
       <c r="C141" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E141" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F141" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G141" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H141" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I141" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="J141" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K141" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -7414,31 +7351,31 @@
         <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D142" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E142" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F142" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G142" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H142" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I142" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J142" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K142" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7449,31 +7386,31 @@
         <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D143" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E143" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F143" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G143" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H143" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="I143" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="J143" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K143" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7484,31 +7421,31 @@
         <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D144" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E144" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F144" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G144" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H144" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I144" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J144" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K144" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -7519,31 +7456,31 @@
         <v>154</v>
       </c>
       <c r="C145" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D145" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E145" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="F145" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="G145" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H145" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I145" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J145" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K145" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -7554,31 +7491,31 @@
         <v>155</v>
       </c>
       <c r="C146" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D146" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E146" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F146" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G146" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H146" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I146" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J146" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K146" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7589,31 +7526,31 @@
         <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D147" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E147" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F147" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G147" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H147" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I147" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="J147" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K147" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7624,31 +7561,31 @@
         <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E148" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F148" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G148" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H148" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I148" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J148" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K148" t="s">
-        <v>682</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7659,31 +7596,31 @@
         <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D149" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E149" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F149" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G149" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H149" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I149" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J149" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K149" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7694,31 +7631,31 @@
         <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D150" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E150" t="s">
+        <v>476</v>
+      </c>
+      <c r="F150" t="s">
         <v>493</v>
       </c>
-      <c r="F150" t="s">
-        <v>509</v>
-      </c>
       <c r="G150" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H150" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I150" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="J150" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K150" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7729,31 +7666,31 @@
         <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D151" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E151" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F151" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G151" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H151" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I151" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J151" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K151" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7764,31 +7701,31 @@
         <v>161</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D152" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E152" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F152" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G152" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H152" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I152" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="J152" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K152" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7799,31 +7736,31 @@
         <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D153" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E153" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F153" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G153" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H153" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I153" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="J153" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K153" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7834,31 +7771,31 @@
         <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D154" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E154" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="F154" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G154" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H154" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I154" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J154" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K154" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7869,31 +7806,31 @@
         <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D155" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E155" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F155" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="G155" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H155" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I155" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J155" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K155" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7904,241 +7841,31 @@
         <v>165</v>
       </c>
       <c r="C156" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D156" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E156" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F156" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="G156" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="H156" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I156" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="J156" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="K156" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157" t="s">
-        <v>326</v>
-      </c>
-      <c r="D157" t="s">
-        <v>487</v>
-      </c>
-      <c r="E157" t="s">
-        <v>493</v>
-      </c>
-      <c r="F157" t="s">
-        <v>501</v>
-      </c>
-      <c r="G157" t="s">
-        <v>501</v>
-      </c>
-      <c r="H157" t="s">
-        <v>501</v>
-      </c>
-      <c r="I157" t="s">
-        <v>541</v>
-      </c>
-      <c r="J157" t="s">
-        <v>501</v>
-      </c>
-      <c r="K157" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158" t="s">
-        <v>327</v>
-      </c>
-      <c r="D158" t="s">
-        <v>488</v>
-      </c>
-      <c r="E158" t="s">
-        <v>494</v>
-      </c>
-      <c r="F158" t="s">
-        <v>501</v>
-      </c>
-      <c r="G158" t="s">
-        <v>501</v>
-      </c>
-      <c r="H158" t="s">
-        <v>501</v>
-      </c>
-      <c r="I158" t="s">
-        <v>541</v>
-      </c>
-      <c r="J158" t="s">
-        <v>501</v>
-      </c>
-      <c r="K158" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" t="s">
-        <v>328</v>
-      </c>
-      <c r="D159" t="s">
-        <v>489</v>
-      </c>
-      <c r="E159" t="s">
-        <v>493</v>
-      </c>
-      <c r="F159" t="s">
-        <v>508</v>
-      </c>
-      <c r="G159" t="s">
-        <v>501</v>
-      </c>
-      <c r="H159" t="s">
-        <v>536</v>
-      </c>
-      <c r="I159" t="s">
-        <v>552</v>
-      </c>
-      <c r="J159" t="s">
-        <v>501</v>
-      </c>
-      <c r="K159" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160" t="s">
-        <v>329</v>
-      </c>
-      <c r="D160" t="s">
-        <v>490</v>
-      </c>
-      <c r="E160" t="s">
-        <v>493</v>
-      </c>
-      <c r="F160" t="s">
-        <v>508</v>
-      </c>
-      <c r="G160" t="s">
-        <v>536</v>
-      </c>
-      <c r="H160" t="s">
-        <v>501</v>
-      </c>
-      <c r="I160" t="s">
-        <v>541</v>
-      </c>
-      <c r="J160" t="s">
-        <v>501</v>
-      </c>
-      <c r="K160" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" t="s">
-        <v>330</v>
-      </c>
-      <c r="D161" t="s">
-        <v>491</v>
-      </c>
-      <c r="E161" t="s">
-        <v>493</v>
-      </c>
-      <c r="F161" t="s">
-        <v>501</v>
-      </c>
-      <c r="G161" t="s">
-        <v>501</v>
-      </c>
-      <c r="H161" t="s">
-        <v>501</v>
-      </c>
-      <c r="I161" t="s">
-        <v>541</v>
-      </c>
-      <c r="J161" t="s">
-        <v>501</v>
-      </c>
-      <c r="K161" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C162" t="s">
-        <v>331</v>
-      </c>
-      <c r="D162" t="s">
-        <v>492</v>
-      </c>
-      <c r="E162" t="s">
-        <v>493</v>
-      </c>
-      <c r="F162" t="s">
-        <v>501</v>
-      </c>
-      <c r="G162" t="s">
-        <v>501</v>
-      </c>
-      <c r="H162" t="s">
-        <v>501</v>
-      </c>
-      <c r="I162" t="s">
-        <v>541</v>
-      </c>
-      <c r="J162" t="s">
-        <v>501</v>
-      </c>
-      <c r="K162" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
